--- a/Lab/Lab2/Python/data.xlsx
+++ b/Lab/Lab2/Python/data.xlsx
@@ -46,8 +46,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +449,117 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4EF3C8915A396289686A2C146BCB309679EB76A300D0BE1F7FBE5810A0F5F141</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.8897953139699073</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>чибуб</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>чибуб</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4EF3C8915A396289686A2C146BCB309679EB76A300D0BE1F7FBE5810A0F5F141</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.8900678983217593</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>чибуб</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>чибуб</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4EF3C8915A396289686A2C146BCB309679EB76A300D0BE1F7FBE5810A0F5F141</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.8903144668171296</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>чибуб</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>чибуб</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>чибуб</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="Y25" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Lab/Lab2/Python/data.xlsx
+++ b/Lab/Lab2/Python/data.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +448,9 @@
           <t>Price</t>
         </is>
       </c>
+      <c r="F1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -459,30 +462,41 @@
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.8897953139699073</v>
+        <v>0.6430173410416666</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>чибуб</t>
+          <t>ви</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4EF3C8915A396289686A2C146BCB309679EB76A300D0BE1F7FBE5810A0F5F141</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.6430173410416666</v>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>чибуб</t>
+          <t>ви</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -490,30 +504,41 @@
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.8900678983217593</v>
+        <v>0.6430173410416666</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>чибуб</t>
+          <t>ви</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4EF3C8915A396289686A2C146BCB309679EB76A300D0BE1F7FBE5810A0F5F141</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.6430173410416666</v>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>чибуб</t>
+          <t>ви</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -521,43 +546,141 @@
         </is>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.8903144668171296</v>
+        <v>0.6430173410416666</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>ви</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4EF3C8915A396289686A2C146BCB309679EB76A300D0BE1F7FBE5810A0F5F141</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.6430173410416666</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ви</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4EF3C8915A396289686A2C146BCB309679EB76A300D0BE1F7FBE5810A0F5F141</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.6430173410416666</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ви</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4EF3C8915A396289686A2C146BCB309679EB76A300D0BE1F7FBE5810A0F5F141</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.6430173410416666</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>виtnf</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4EF3C8915A396289686A2C146BCB309679EB76A300D0BE1F7FBE5810A0F5F141</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.6430173410416666</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>чумба</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4EF3C8915A396289686A2C146BCB309679EB76A300D0BE1F7FBE5810A0F5F141</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0.6430173410416666</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>вичу</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4EF3C8915A396289686A2C146BCB309679EB76A300D0BE1F7FBE5810A0F5F141</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0.6438670672453704</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>чибуб</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>чибуб</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>чибуб</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="Y25" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>4</v>
+      <c r="E12" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
